--- a/biology/Zoologie/Gobie_abeille/Gobie_abeille.xlsx
+++ b/biology/Zoologie/Gobie_abeille/Gobie_abeille.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Brachygobius xanthozonus
 Le Gobie abeille (Brachygobius xanthozonus) ou Poisson bourdon est appelé ainsi à cause de ses rayures noires et jaunes qui rappellent celles des abeilles. Il appartient à la grande famille des gobiidés.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le gobie abeille mesure 4,5 cm de long[1]. Son corps se caractérise par une forme fusiforme et des rayures noires et jaunes au nombre de 4 bandes noires et de 3 jaunes.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le gobie abeille mesure 4,5 cm de long. Son corps se caractérise par une forme fusiforme et des rayures noires et jaunes au nombre de 4 bandes noires et de 3 jaunes.
 Comme tous les gobiidés, sa nageoire pelvienne forme un disque en forme de ventouse qui lui permet de se poser sur les divers supports et plantes de son environnement.
 </t>
         </is>
@@ -544,7 +558,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Omnivore. Son régime alimentaire se constitue de petites proies vivantes et de matière organique tombée au fond de l'eau.
 Il est difficile de le nourrir en aquarium.
@@ -576,7 +592,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le gobie abeille se trouve en Thaïlande et au sud du Vietnam.
 </t>
@@ -607,7 +625,9 @@
           <t>Maintenance en aquarium</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est généralement vendu en tant que poisson d'eau douce, mais il préfère l'eau saumâtre.
 </t>
